--- a/ハートキャッチゲーム/Document/3.ハートゲームルールと音の仕様.xlsx
+++ b/ハートキャッチゲーム/Document/3.ハートゲームルールと音の仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AFFEF6-3C4B-4026-AC2D-53C502654843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6D44F-F3C5-4A5A-B938-5119A35533CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{A7C1605A-4F8D-422A-A50A-47C3F46D6375}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.0625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
